--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H2">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I2">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J2">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N2">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O2">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P2">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q2">
-        <v>124.9943202763437</v>
+        <v>52.8419024620695</v>
       </c>
       <c r="R2">
-        <v>499.977281105375</v>
+        <v>211.367609848278</v>
       </c>
       <c r="S2">
-        <v>0.01472688310124172</v>
+        <v>0.004683134599338649</v>
       </c>
       <c r="T2">
-        <v>0.008597216148591427</v>
+        <v>0.002785552110687788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H3">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I3">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J3">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N3">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O3">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P3">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q3">
-        <v>0.7389156994834999</v>
+        <v>1.347645083390667</v>
       </c>
       <c r="R3">
-        <v>4.433494196901</v>
+        <v>8.085870500343999</v>
       </c>
       <c r="S3">
-        <v>8.705935680843301E-05</v>
+        <v>0.0001194355809234102</v>
       </c>
       <c r="T3">
-        <v>7.623487975296702E-05</v>
+        <v>0.0001065613300692052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H4">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I4">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J4">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N4">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O4">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P4">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q4">
-        <v>0.3861407490275</v>
+        <v>0.41661598914975</v>
       </c>
       <c r="R4">
-        <v>1.54456299611</v>
+        <v>1.666463956599</v>
       </c>
       <c r="S4">
-        <v>4.549526457667501E-05</v>
+        <v>3.692275755638033E-05</v>
       </c>
       <c r="T4">
-        <v>2.655909065171101E-05</v>
+        <v>2.196184266369649E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H5">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I5">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J5">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N5">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O5">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P5">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q5">
-        <v>53.966064266476</v>
+        <v>16.28500268455233</v>
       </c>
       <c r="R5">
-        <v>323.796385598856</v>
+        <v>97.71001610731399</v>
       </c>
       <c r="S5">
-        <v>0.006358304266381167</v>
+        <v>0.001443264832811301</v>
       </c>
       <c r="T5">
-        <v>0.005567748016413009</v>
+        <v>0.001287691817106876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H6">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I6">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J6">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N6">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O6">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P6">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q6">
-        <v>1.049498921201333</v>
+        <v>0.1425577331078333</v>
       </c>
       <c r="R6">
-        <v>6.296993527208</v>
+        <v>0.855346398647</v>
       </c>
       <c r="S6">
-        <v>0.000123652401911069</v>
+        <v>1.263423573365479E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001082781487990821</v>
+        <v>1.127236083064294E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.713052</v>
       </c>
       <c r="I7">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J7">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N7">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O7">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P7">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q7">
-        <v>51.91436596858334</v>
+        <v>39.20959042587601</v>
       </c>
       <c r="R7">
-        <v>311.4861958115</v>
+        <v>235.257542555256</v>
       </c>
       <c r="S7">
-        <v>0.006116572314679034</v>
+        <v>0.003474965529129549</v>
       </c>
       <c r="T7">
-        <v>0.005356071673443786</v>
+        <v>0.003100390569257101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>4.713052</v>
       </c>
       <c r="I8">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J8">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N8">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O8">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P8">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q8">
-        <v>0.3068966650493333</v>
+        <v>0.9999755742542223</v>
       </c>
       <c r="R8">
-        <v>2.762069985444</v>
+        <v>8.999780168288</v>
       </c>
       <c r="S8">
-        <v>3.615869345383246E-05</v>
+        <v>8.862323255005829E-05</v>
       </c>
       <c r="T8">
-        <v>4.749438340458139E-05</v>
+        <v>0.0001186054791531011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>4.713052</v>
       </c>
       <c r="I9">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J9">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N9">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O9">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P9">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q9">
-        <v>0.1603773044733334</v>
+        <v>0.309136150258</v>
       </c>
       <c r="R9">
-        <v>0.9622638268400001</v>
+        <v>1.854816901548</v>
       </c>
       <c r="S9">
-        <v>1.889572110036135E-05</v>
+        <v>2.739731413377452E-05</v>
       </c>
       <c r="T9">
-        <v>1.654633205137708E-05</v>
+        <v>2.444409121508788E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.713052</v>
       </c>
       <c r="I10">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J10">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N10">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O10">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P10">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q10">
-        <v>22.41393052116267</v>
+        <v>12.08374898696978</v>
       </c>
       <c r="R10">
-        <v>201.725374690464</v>
+        <v>108.753740882728</v>
       </c>
       <c r="S10">
-        <v>0.002640818669958306</v>
+        <v>0.001070927054740739</v>
       </c>
       <c r="T10">
-        <v>0.003468710908294248</v>
+        <v>0.001433233846370922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>4.713052</v>
       </c>
       <c r="I11">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J11">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N11">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O11">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P11">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q11">
-        <v>0.435892374616889</v>
+        <v>0.1057802627604445</v>
       </c>
       <c r="R11">
-        <v>3.923031371552</v>
+        <v>0.952022364844</v>
       </c>
       <c r="S11">
-        <v>5.135702191518301E-05</v>
+        <v>9.374817812741749E-06</v>
       </c>
       <c r="T11">
-        <v>6.745736243129278E-05</v>
+        <v>1.254642520543593E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H12">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I12">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J12">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N12">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O12">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P12">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q12">
-        <v>2492.144597269354</v>
+        <v>1881.949626359244</v>
       </c>
       <c r="R12">
-        <v>14952.86758361612</v>
+        <v>11291.69775815546</v>
       </c>
       <c r="S12">
-        <v>0.2936255189374632</v>
+        <v>0.1667885333186441</v>
       </c>
       <c r="T12">
-        <v>0.2571177521774635</v>
+        <v>0.1488099929126145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H13">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I13">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J13">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N13">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O13">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P13">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q13">
-        <v>14.73254756083366</v>
+        <v>47.99600398514134</v>
       </c>
       <c r="R13">
-        <v>132.592928047503</v>
+        <v>431.964035866272</v>
       </c>
       <c r="S13">
-        <v>0.001735794916378642</v>
+        <v>0.004253664921586704</v>
       </c>
       <c r="T13">
-        <v>0.002279963720909076</v>
+        <v>0.005692728099221169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H14">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I14">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J14">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N14">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O14">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P14">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q14">
-        <v>7.698898472721666</v>
+        <v>14.837662320702</v>
       </c>
       <c r="R14">
-        <v>46.19339083633</v>
+        <v>89.025973924212</v>
       </c>
       <c r="S14">
-        <v>0.000907087438576669</v>
+        <v>0.001314993718049067</v>
       </c>
       <c r="T14">
-        <v>0.0007943052227858962</v>
+        <v>0.001173247356814188</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H15">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I15">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J15">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N15">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O15">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P15">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q15">
-        <v>1075.978774077485</v>
+        <v>579.9858311205147</v>
       </c>
       <c r="R15">
-        <v>9683.808966697366</v>
+        <v>5219.872480084632</v>
       </c>
       <c r="S15">
-        <v>0.1267722692537052</v>
+        <v>0.05140147470648598</v>
       </c>
       <c r="T15">
-        <v>0.166515163737647</v>
+        <v>0.0687911776778759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H16">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I16">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J16">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N16">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O16">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P16">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q16">
-        <v>20.92497531511378</v>
+        <v>5.077153926270667</v>
       </c>
       <c r="R16">
-        <v>188.324777836024</v>
+        <v>45.694385336436</v>
       </c>
       <c r="S16">
-        <v>0.00246538934473786</v>
+        <v>0.0004499647838257455</v>
       </c>
       <c r="T16">
-        <v>0.003238284782885013</v>
+        <v>0.0006021929831720969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H17">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I17">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J17">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N17">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O17">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P17">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q17">
-        <v>56.43212719578125</v>
+        <v>43.45586401566151</v>
       </c>
       <c r="R17">
-        <v>225.728508783125</v>
+        <v>173.823456062646</v>
       </c>
       <c r="S17">
-        <v>0.006648856832288894</v>
+        <v>0.003851293213032616</v>
       </c>
       <c r="T17">
-        <v>0.003881449926319225</v>
+        <v>0.002290768653105883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H18">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I18">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J18">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N18">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O18">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P18">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q18">
-        <v>0.3336038361424999</v>
+        <v>1.108269739668</v>
       </c>
       <c r="R18">
-        <v>2.001623016855</v>
+        <v>6.649618438008001</v>
       </c>
       <c r="S18">
-        <v>3.930534352388661E-05</v>
+        <v>9.822084598420382E-05</v>
       </c>
       <c r="T18">
-        <v>3.441833534086375E-05</v>
+        <v>8.763338284686821E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H19">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I19">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J19">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N19">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O19">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P19">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q19">
-        <v>0.1743338722625</v>
+        <v>0.3426146093857501</v>
       </c>
       <c r="R19">
-        <v>0.69733548905</v>
+        <v>1.370458437543</v>
       </c>
       <c r="S19">
-        <v>2.054008975544264E-05</v>
+        <v>3.0364355874678E-05</v>
       </c>
       <c r="T19">
-        <v>1.199083269182191E-05</v>
+        <v>1.806087222185094E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H20">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I20">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J20">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N20">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O20">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P20">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q20">
-        <v>24.36446549098</v>
+        <v>13.392380462883</v>
       </c>
       <c r="R20">
-        <v>146.18679294588</v>
+        <v>80.35428277729801</v>
       </c>
       <c r="S20">
-        <v>0.002870631516029044</v>
+        <v>0.001186905039201687</v>
       </c>
       <c r="T20">
-        <v>0.002513713131617731</v>
+        <v>0.001058965667226753</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H21">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I21">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J21">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N21">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O21">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P21">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q21">
-        <v>0.4738251824733333</v>
+        <v>0.1172359278465</v>
       </c>
       <c r="R21">
-        <v>2.84295109484</v>
+        <v>0.7034155670790001</v>
       </c>
       <c r="S21">
-        <v>5.582628120447446E-05</v>
+        <v>1.039008068223158E-05</v>
       </c>
       <c r="T21">
-        <v>4.88851513576331E-05</v>
+        <v>9.270108693446624E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H22">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I22">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J22">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N22">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O22">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P22">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q22">
-        <v>84.57154552495834</v>
+        <v>4923.97106279988</v>
       </c>
       <c r="R22">
-        <v>507.42927314975</v>
+        <v>29543.82637679928</v>
       </c>
       <c r="S22">
-        <v>0.009964254870812086</v>
+        <v>0.4363888916924001</v>
       </c>
       <c r="T22">
-        <v>0.008725354743612055</v>
+        <v>0.3893494749775505</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H23">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I23">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J23">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N23">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O23">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P23">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q23">
-        <v>0.4999526584873333</v>
+        <v>125.5777154939378</v>
       </c>
       <c r="R23">
-        <v>4.499573926386</v>
+        <v>1130.19943944544</v>
       </c>
       <c r="S23">
-        <v>5.890463135780936E-05</v>
+        <v>0.01112937492660693</v>
       </c>
       <c r="T23">
-        <v>7.737113481673116E-05</v>
+        <v>0.0148945689280644</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H24">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I24">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J24">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N24">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O24">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P24">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q24">
-        <v>0.2612640307433334</v>
+        <v>38.82155977154</v>
       </c>
       <c r="R24">
-        <v>1.56758418446</v>
+        <v>232.92935862924</v>
       </c>
       <c r="S24">
-        <v>3.078223739134559E-05</v>
+        <v>0.003440576158227746</v>
       </c>
       <c r="T24">
-        <v>2.695494490293782E-05</v>
+        <v>0.003069708112026126</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H25">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I25">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J25">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N25">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O25">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P25">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q25">
-        <v>36.51360678489067</v>
+        <v>1517.486658129182</v>
       </c>
       <c r="R25">
-        <v>328.622461064016</v>
+        <v>13657.37992316264</v>
       </c>
       <c r="S25">
-        <v>0.004302048425376029</v>
+        <v>0.134487857961222</v>
       </c>
       <c r="T25">
-        <v>0.005650733414932848</v>
+        <v>0.1799866285034809</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H26">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I26">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J26">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N26">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O26">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P26">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q26">
-        <v>0.7100942314542223</v>
+        <v>13.28396821263556</v>
       </c>
       <c r="R26">
-        <v>6.390848083088001</v>
+        <v>119.55571391372</v>
       </c>
       <c r="S26">
-        <v>8.366359938893627E-05</v>
+        <v>0.001177296960452244</v>
       </c>
       <c r="T26">
-        <v>0.0001098919979356799</v>
+        <v>0.001575589899872548</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H27">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I27">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J27">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N27">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O27">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P27">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q27">
-        <v>3046.838707973771</v>
+        <v>1452.314934303987</v>
       </c>
       <c r="R27">
-        <v>18281.03224784262</v>
+        <v>8713.889605823924</v>
       </c>
       <c r="S27">
-        <v>0.3589798110943463</v>
+        <v>0.1287119880450434</v>
       </c>
       <c r="T27">
-        <v>0.3143462545070104</v>
+        <v>0.1148378107753909</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H28">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I28">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J28">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N28">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O28">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P28">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q28">
-        <v>18.01167405157633</v>
+        <v>37.03888371836179</v>
       </c>
       <c r="R28">
-        <v>162.105066464187</v>
+        <v>333.349953465256</v>
       </c>
       <c r="S28">
-        <v>0.002122142971206953</v>
+        <v>0.003282585784772816</v>
       </c>
       <c r="T28">
-        <v>0.002787431245062252</v>
+        <v>0.004393121855989918</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H29">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I29">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J29">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N29">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O29">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P29">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q29">
-        <v>9.412496329928334</v>
+        <v>11.4503376055835</v>
       </c>
       <c r="R29">
-        <v>56.47497797957001</v>
+        <v>68.70202563350101</v>
       </c>
       <c r="S29">
-        <v>0.001108984254926628</v>
+        <v>0.001014790719416434</v>
       </c>
       <c r="T29">
-        <v>0.0009710993099603958</v>
+        <v>0.0009054039672837999</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H30">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I30">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J30">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N30">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O30">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P30">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q30">
-        <v>1315.466920101475</v>
+        <v>447.5795060734763</v>
       </c>
       <c r="R30">
-        <v>11839.20228091327</v>
+        <v>4028.215554661287</v>
       </c>
       <c r="S30">
-        <v>0.1549888627983632</v>
+        <v>0.0396669115452871</v>
       </c>
       <c r="T30">
-        <v>0.2035776121884547</v>
+        <v>0.05308667845866518</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H31">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I31">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J31">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N31">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O31">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P31">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q31">
-        <v>25.58239390416622</v>
+        <v>3.918078554072557</v>
       </c>
       <c r="R31">
-        <v>230.241545137496</v>
+        <v>35.26270698665301</v>
       </c>
       <c r="S31">
-        <v>0.003014128351141391</v>
+        <v>0.0003472412684739156</v>
       </c>
       <c r="T31">
-        <v>0.003959052550460863</v>
+        <v>0.0004647169353229857</v>
       </c>
     </row>
   </sheetData>
